--- a/Avg_Screening_Time_Analysis.xlsx
+++ b/Avg_Screening_Time_Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time Class</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>0-2 hrs</t>
-  </si>
-  <si>
-    <t>Screen Pending</t>
   </si>
   <si>
     <t>&gt;48 hrs</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>39.58333333333333</v>
+        <v>56.71641791044776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30.20833333333333</v>
+        <v>17.91044776119403</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12.5</v>
+        <v>11.19402985074627</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.8125</v>
+        <v>8.208955223880597</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.729166666666666</v>
+        <v>3.731343283582089</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.604166666666667</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.041666666666667</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,15 +476,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5208333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>34.375</v>
+        <v>49.25373134328358</v>
       </c>
     </row>
   </sheetData>
